--- a/public/exports/contentowner_report.xlsx
+++ b/public/exports/contentowner_report.xlsx
@@ -26,7 +26,7 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Tỉnh</t>
+    <t>Tỉnh/Thành</t>
   </si>
   <si>
     <t>Quận/Huyện</t>
@@ -35,97 +35,97 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>Cụ. Tô Sơn</t>
-  </si>
-  <si>
-    <t>0500 990 8020</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>2.502 VNĐ</t>
-  </si>
-  <si>
-    <t>Thào Xuân</t>
-  </si>
-  <si>
-    <t>(066)100-9705</t>
-  </si>
-  <si>
-    <t>2.836 VNĐ</t>
-  </si>
-  <si>
-    <t>Lã Việt Yên</t>
-  </si>
-  <si>
-    <t>84-710-729-7857</t>
-  </si>
-  <si>
-    <t>21.594 VNĐ</t>
-  </si>
-  <si>
-    <t>Bạc Triết</t>
-  </si>
-  <si>
-    <t>(091)503-3777</t>
-  </si>
-  <si>
-    <t>15.500 VNĐ</t>
-  </si>
-  <si>
-    <t>Hình Cường Chiến</t>
-  </si>
-  <si>
-    <t>84-60-426-2099</t>
-  </si>
-  <si>
-    <t>1.842 VNĐ</t>
-  </si>
-  <si>
-    <t>Bà. Hy Chi</t>
-  </si>
-  <si>
-    <t>84-510-311-6716</t>
-  </si>
-  <si>
-    <t>1.864 VNĐ</t>
-  </si>
-  <si>
-    <t>Cụ. Sử Mộc Yến</t>
-  </si>
-  <si>
-    <t>0281-389-7757</t>
-  </si>
-  <si>
-    <t>5.058 VNĐ</t>
-  </si>
-  <si>
-    <t>Phạm Lộc Lộc</t>
-  </si>
-  <si>
-    <t>(057) 263 4654</t>
-  </si>
-  <si>
-    <t>2.160 VNĐ</t>
-  </si>
-  <si>
-    <t>Âu Hải Hậu</t>
-  </si>
-  <si>
-    <t>84-710-128-6637</t>
-  </si>
-  <si>
-    <t>576 VNĐ</t>
-  </si>
-  <si>
-    <t>Bác. Lư Đoàn Trân</t>
-  </si>
-  <si>
-    <t>84-230-821-1776</t>
-  </si>
-  <si>
-    <t>34.068 VNĐ</t>
+    <t>Diêm Trúc Hoa</t>
+  </si>
+  <si>
+    <t>+84-57-107-3190</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>2.332 VNĐ</t>
+  </si>
+  <si>
+    <t>Phan Trang Giao</t>
+  </si>
+  <si>
+    <t>+84-37-369-4812</t>
+  </si>
+  <si>
+    <t>4.364 VNĐ</t>
+  </si>
+  <si>
+    <t>Hoa Trúc Hoàn</t>
+  </si>
+  <si>
+    <t>+84-30-610-5014</t>
+  </si>
+  <si>
+    <t>4.106 VNĐ</t>
+  </si>
+  <si>
+    <t>Chú. Khâu Khải</t>
+  </si>
+  <si>
+    <t>84-230-242-6166</t>
+  </si>
+  <si>
+    <t>3.492 VNĐ</t>
+  </si>
+  <si>
+    <t>Chị. Dã Trung</t>
+  </si>
+  <si>
+    <t>(84)(167)635-3897</t>
+  </si>
+  <si>
+    <t>1.700 VNĐ</t>
+  </si>
+  <si>
+    <t>Cầm Ty</t>
+  </si>
+  <si>
+    <t>(84)(56)377-5207</t>
+  </si>
+  <si>
+    <t>4.898 VNĐ</t>
+  </si>
+  <si>
+    <t>Chú. Trịnh Nhật Diệp</t>
+  </si>
+  <si>
+    <t>+84-75-839-8540</t>
+  </si>
+  <si>
+    <t>4.884 VNĐ</t>
+  </si>
+  <si>
+    <t>Dương Nhan Mai</t>
+  </si>
+  <si>
+    <t>+84-241-669-8839</t>
+  </si>
+  <si>
+    <t>6.072 VNĐ</t>
+  </si>
+  <si>
+    <t>Bà. Cù Vàng Hiệp</t>
+  </si>
+  <si>
+    <t>091-025-3299</t>
+  </si>
+  <si>
+    <t>2.934 VNĐ</t>
+  </si>
+  <si>
+    <t>Đan Hòa</t>
+  </si>
+  <si>
+    <t>(84)(169)724-4428</t>
+  </si>
+  <si>
+    <t>4.386 VNĐ</t>
   </si>
 </sst>
 </file>
@@ -487,10 +487,10 @@
   <cols>
     <col min="1" max="1" width="3.27301" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="28.016968" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.590698" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.877563" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.877563" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.69928" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.947266" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.69928" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.69928" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.520996" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/public/exports/contentowner_report.xlsx
+++ b/public/exports/contentowner_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>Mã</t>
   </si>
@@ -35,97 +35,1489 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>Diêm Trúc Hoa</t>
-  </si>
-  <si>
-    <t>+84-57-107-3190</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>2.332 VNĐ</t>
-  </si>
-  <si>
-    <t>Phan Trang Giao</t>
-  </si>
-  <si>
-    <t>+84-37-369-4812</t>
-  </si>
-  <si>
-    <t>4.364 VNĐ</t>
-  </si>
-  <si>
-    <t>Hoa Trúc Hoàn</t>
-  </si>
-  <si>
-    <t>+84-30-610-5014</t>
-  </si>
-  <si>
-    <t>4.106 VNĐ</t>
-  </si>
-  <si>
-    <t>Chú. Khâu Khải</t>
-  </si>
-  <si>
-    <t>84-230-242-6166</t>
-  </si>
-  <si>
-    <t>3.492 VNĐ</t>
-  </si>
-  <si>
-    <t>Chị. Dã Trung</t>
-  </si>
-  <si>
-    <t>(84)(167)635-3897</t>
-  </si>
-  <si>
-    <t>1.700 VNĐ</t>
-  </si>
-  <si>
-    <t>Cầm Ty</t>
-  </si>
-  <si>
-    <t>(84)(56)377-5207</t>
-  </si>
-  <si>
-    <t>4.898 VNĐ</t>
-  </si>
-  <si>
-    <t>Chú. Trịnh Nhật Diệp</t>
-  </si>
-  <si>
-    <t>+84-75-839-8540</t>
-  </si>
-  <si>
-    <t>4.884 VNĐ</t>
-  </si>
-  <si>
-    <t>Dương Nhan Mai</t>
-  </si>
-  <si>
-    <t>+84-241-669-8839</t>
-  </si>
-  <si>
-    <t>6.072 VNĐ</t>
-  </si>
-  <si>
-    <t>Bà. Cù Vàng Hiệp</t>
-  </si>
-  <si>
-    <t>091-025-3299</t>
-  </si>
-  <si>
-    <t>2.934 VNĐ</t>
-  </si>
-  <si>
-    <t>Đan Hòa</t>
-  </si>
-  <si>
-    <t>(84)(169)724-4428</t>
-  </si>
-  <si>
-    <t>4.386 VNĐ</t>
+    <t>Anh Tú</t>
+  </si>
+  <si>
+    <t>0951847377</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>26.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Axn</t>
+  </si>
+  <si>
+    <t>0919165172</t>
+  </si>
+  <si>
+    <t>182.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Bằng Kiều</t>
+  </si>
+  <si>
+    <t>0932631644</t>
+  </si>
+  <si>
+    <t>165.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Cẩm Ly</t>
+  </si>
+  <si>
+    <t>0950817211</t>
+  </si>
+  <si>
+    <t>840.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Cẩm Vân</t>
+  </si>
+  <si>
+    <t>0937235959</t>
+  </si>
+  <si>
+    <t>62.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Cao Thái Sơn</t>
+  </si>
+  <si>
+    <t>0966721953</t>
+  </si>
+  <si>
+    <t>193.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Châu Gia Kiệt</t>
+  </si>
+  <si>
+    <t>0939037147</t>
+  </si>
+  <si>
+    <t>114.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Chế Linh</t>
+  </si>
+  <si>
+    <t>0919725258</t>
+  </si>
+  <si>
+    <t>279.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>0999093948</t>
+  </si>
+  <si>
+    <t>1.248.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Đan Trường</t>
+  </si>
+  <si>
+    <t>0914532937</t>
+  </si>
+  <si>
+    <t>680.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Đình Văn</t>
+  </si>
+  <si>
+    <t>0913344734</t>
+  </si>
+  <si>
+    <t>4.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Duy Mạnh</t>
+  </si>
+  <si>
+    <t>0923014362</t>
+  </si>
+  <si>
+    <t>441.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Hạ Vy</t>
+  </si>
+  <si>
+    <t>0993941395</t>
+  </si>
+  <si>
+    <t>247.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Họa Mi</t>
+  </si>
+  <si>
+    <t>0949907210</t>
+  </si>
+  <si>
+    <t>30.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Hoài Nam</t>
+  </si>
+  <si>
+    <t>0979069281</t>
+  </si>
+  <si>
+    <t>484.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Hoàng Châu</t>
+  </si>
+  <si>
+    <t>0951201908</t>
+  </si>
+  <si>
+    <t>506.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>0902513600</t>
+  </si>
+  <si>
+    <t>248.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồng Nhung</t>
+  </si>
+  <si>
+    <t>0926742289</t>
+  </si>
+  <si>
+    <t>123.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Hương Lan</t>
+  </si>
+  <si>
+    <t>0949114197</t>
+  </si>
+  <si>
+    <t>144.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Huy Vũ</t>
+  </si>
+  <si>
+    <t>0929623306</t>
+  </si>
+  <si>
+    <t>364.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Jimmy Nguyễn</t>
+  </si>
+  <si>
+    <t>0988994296</t>
+  </si>
+  <si>
+    <t>61.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Khánh Hoàng</t>
+  </si>
+  <si>
+    <t>0998625556</t>
+  </si>
+  <si>
+    <t>254.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Phạm Khánh Hưng</t>
+  </si>
+  <si>
+    <t>0924058730</t>
+  </si>
+  <si>
+    <t>357.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Khánh Ngọc</t>
+  </si>
+  <si>
+    <t>0949883101</t>
+  </si>
+  <si>
+    <t>171.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Chấn Huy</t>
+  </si>
+  <si>
+    <t>0942171764</t>
+  </si>
+  <si>
+    <t>3.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Hùng</t>
+  </si>
+  <si>
+    <t>0901687586</t>
+  </si>
+  <si>
+    <t>298.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Thúy Vân</t>
+  </si>
+  <si>
+    <t>0970253484</t>
+  </si>
+  <si>
+    <t>76.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Vũ</t>
+  </si>
+  <si>
+    <t>0997998008</t>
+  </si>
+  <si>
+    <t>234.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lây Minh</t>
+  </si>
+  <si>
+    <t>0981346093</t>
+  </si>
+  <si>
+    <t>81.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lệ Quyên</t>
+  </si>
+  <si>
+    <t>0959478866</t>
+  </si>
+  <si>
+    <t>145.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lê Uyên Nhi</t>
+  </si>
+  <si>
+    <t>0930116649</t>
+  </si>
+  <si>
+    <t>118.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Linda Trang Đài</t>
+  </si>
+  <si>
+    <t>0981088415</t>
+  </si>
+  <si>
+    <t>85.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Loan Châu</t>
+  </si>
+  <si>
+    <t>0991200389</t>
+  </si>
+  <si>
+    <t>173.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Long Nhật</t>
+  </si>
+  <si>
+    <t>0943945315</t>
+  </si>
+  <si>
+    <t>169.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lương Gia Huy</t>
+  </si>
+  <si>
+    <t>0970354360</t>
+  </si>
+  <si>
+    <t>235.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Lưu Bích</t>
+  </si>
+  <si>
+    <t>0956951210</t>
+  </si>
+  <si>
+    <t>221.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lưu Chí Vỹ</t>
+  </si>
+  <si>
+    <t>0920052041</t>
+  </si>
+  <si>
+    <t>205.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lưu Gia Bảo</t>
+  </si>
+  <si>
+    <t>0992378438</t>
+  </si>
+  <si>
+    <t>34.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lý Hải</t>
+  </si>
+  <si>
+    <t>0983052981</t>
+  </si>
+  <si>
+    <t>601.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Mạnh Quỳnh</t>
+  </si>
+  <si>
+    <t>0989460420</t>
+  </si>
+  <si>
+    <t>557.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Minh Tuyết</t>
+  </si>
+  <si>
+    <t>0910902103</t>
+  </si>
+  <si>
+    <t>559.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Mỹ Huyền</t>
+  </si>
+  <si>
+    <t>0930838969</t>
+  </si>
+  <si>
+    <t>118.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Mỹ Lệ</t>
+  </si>
+  <si>
+    <t>0950589304</t>
+  </si>
+  <si>
+    <t>156.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Mỹ Linh</t>
+  </si>
+  <si>
+    <t>0957085451</t>
+  </si>
+  <si>
+    <t>130.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Mỹ Tâm</t>
+  </si>
+  <si>
+    <t>0924301435</t>
+  </si>
+  <si>
+    <t>286.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Nghi Văn</t>
+  </si>
+  <si>
+    <t>0936953913</t>
+  </si>
+  <si>
+    <t>88.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Ngô Quốc Linh</t>
+  </si>
+  <si>
+    <t>0986927836</t>
+  </si>
+  <si>
+    <t>207.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Ngọc Thúy</t>
+  </si>
+  <si>
+    <t>0973903355</t>
+  </si>
+  <si>
+    <t>31.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Mây Trắng</t>
+  </si>
+  <si>
+    <t>0989996024</t>
+  </si>
+  <si>
+    <t>65.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Nguyễn Phi Hùng</t>
+  </si>
+  <si>
+    <t>0996365603</t>
+  </si>
+  <si>
+    <t>217.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Nguyên Vũ</t>
+  </si>
+  <si>
+    <t>0922201379</t>
+  </si>
+  <si>
+    <t>81.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Nhật Hào</t>
+  </si>
+  <si>
+    <t>0931060277</t>
+  </si>
+  <si>
+    <t>227.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Nhật Tinh Anh</t>
+  </si>
+  <si>
+    <t>0948696645</t>
+  </si>
+  <si>
+    <t>131.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Thảo</t>
+  </si>
+  <si>
+    <t>0949340263</t>
+  </si>
+  <si>
+    <t>9.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Phan Đinh Tùng</t>
+  </si>
+  <si>
+    <t>0931077058</t>
+  </si>
+  <si>
+    <t>143.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Phi Nhung</t>
+  </si>
+  <si>
+    <t>0968163850</t>
+  </si>
+  <si>
+    <t>127.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Phương Thanh</t>
+  </si>
+  <si>
+    <t>0944852595</t>
+  </si>
+  <si>
+    <t>559.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Quách Thành Danh</t>
+  </si>
+  <si>
+    <t>0955990492</t>
+  </si>
+  <si>
+    <t>178.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Quách Tuấn Du</t>
+  </si>
+  <si>
+    <t>0947952406</t>
+  </si>
+  <si>
+    <t>8.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Quang Dũng</t>
+  </si>
+  <si>
+    <t>0963081487</t>
+  </si>
+  <si>
+    <t>209.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Quang Lê</t>
+  </si>
+  <si>
+    <t>0940875069</t>
+  </si>
+  <si>
+    <t>75.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Quang Linh</t>
+  </si>
+  <si>
+    <t>0986444746</t>
+  </si>
+  <si>
+    <t>170.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quang Vinh</t>
+  </si>
+  <si>
+    <t>0952531272</t>
+  </si>
+  <si>
+    <t>189.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Sơn Ca</t>
+  </si>
+  <si>
+    <t>0931998101</t>
+  </si>
+  <si>
+    <t>175.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Tâm Đoan</t>
+  </si>
+  <si>
+    <t>0906758666</t>
+  </si>
+  <si>
+    <t>86.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Thái Châu</t>
+  </si>
+  <si>
+    <t>0919979126</t>
+  </si>
+  <si>
+    <t>98.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Thanh Thảo</t>
+  </si>
+  <si>
+    <t>0934494833</t>
+  </si>
+  <si>
+    <t>226.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Thanh Thúy</t>
+  </si>
+  <si>
+    <t>0932878102</t>
+  </si>
+  <si>
+    <t>189.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Thanh Tuyền</t>
+  </si>
+  <si>
+    <t>0910246302</t>
+  </si>
+  <si>
+    <t>122.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Thiên Kim</t>
+  </si>
+  <si>
+    <t>0924400770</t>
+  </si>
+  <si>
+    <t>263.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Thu Hà</t>
+  </si>
+  <si>
+    <t>0939253354</t>
+  </si>
+  <si>
+    <t>184.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Thu Hiền</t>
+  </si>
+  <si>
+    <t>0990972663</t>
+  </si>
+  <si>
+    <t>118.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Tô Phương Trang</t>
+  </si>
+  <si>
+    <t>0976835107</t>
+  </si>
+  <si>
+    <t>177.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Trần Tiến</t>
+  </si>
+  <si>
+    <t>0984944637</t>
+  </si>
+  <si>
+    <t>135.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Trang Thanh Lan</t>
+  </si>
+  <si>
+    <t>0944414411</t>
+  </si>
+  <si>
+    <t>153.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Triệu Hoàng</t>
+  </si>
+  <si>
+    <t>0970929087</t>
+  </si>
+  <si>
+    <t>80.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Trọng Phúc</t>
+  </si>
+  <si>
+    <t>0905358615</t>
+  </si>
+  <si>
+    <t>136.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Trương Đan Huy</t>
+  </si>
+  <si>
+    <t>0929295293</t>
+  </si>
+  <si>
+    <t>173.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Trường Vũ</t>
+  </si>
+  <si>
+    <t>0969407744</t>
+  </si>
+  <si>
+    <t>226.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tú Quyên</t>
+  </si>
+  <si>
+    <t>0943298027</t>
+  </si>
+  <si>
+    <t>158.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tuấn Hưng</t>
+  </si>
+  <si>
+    <t>0907040946</t>
+  </si>
+  <si>
+    <t>58.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Tuấn Ngọc</t>
+  </si>
+  <si>
+    <t>0959155793</t>
+  </si>
+  <si>
+    <t>161.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tường Nguyên</t>
+  </si>
+  <si>
+    <t>0925944002</t>
+  </si>
+  <si>
+    <t>266.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Uyên Trang</t>
+  </si>
+  <si>
+    <t>0980781970</t>
+  </si>
+  <si>
+    <t>237.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Việt Quang</t>
+  </si>
+  <si>
+    <t>0915991461</t>
+  </si>
+  <si>
+    <t>154.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Vũ Hà</t>
+  </si>
+  <si>
+    <t>0933178395</t>
+  </si>
+  <si>
+    <t>40.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Anh Thơ</t>
+  </si>
+  <si>
+    <t>0915826033</t>
+  </si>
+  <si>
+    <t>178.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Quang Thọ</t>
+  </si>
+  <si>
+    <t>0917524197</t>
+  </si>
+  <si>
+    <t>164.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lương Bằng Quang</t>
+  </si>
+  <si>
+    <t>0982255021</t>
+  </si>
+  <si>
+    <t>10.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lương Bích Hữu</t>
+  </si>
+  <si>
+    <t>0921519830</t>
+  </si>
+  <si>
+    <t>161.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Gia Minh</t>
+  </si>
+  <si>
+    <t>0984967668</t>
+  </si>
+  <si>
+    <t>121.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Ngọc Minh</t>
+  </si>
+  <si>
+    <t>0966474615</t>
+  </si>
+  <si>
+    <t>170.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Aero Smith</t>
+  </si>
+  <si>
+    <t>0926308203</t>
+  </si>
+  <si>
+    <t>180.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Dân Ca</t>
+  </si>
+  <si>
+    <t>0912506921</t>
+  </si>
+  <si>
+    <t>Phú Quang</t>
+  </si>
+  <si>
+    <t>0977484707</t>
+  </si>
+  <si>
+    <t>159.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Quốc Đại</t>
+  </si>
+  <si>
+    <t>0982732110</t>
+  </si>
+  <si>
+    <t>179.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Thái Phong Vũ</t>
+  </si>
+  <si>
+    <t>0978368154</t>
+  </si>
+  <si>
+    <t>168.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tài Linh</t>
+  </si>
+  <si>
+    <t>0987653008</t>
+  </si>
+  <si>
+    <t>176.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Duy Hạnh</t>
+  </si>
+  <si>
+    <t>0981971554</t>
+  </si>
+  <si>
+    <t>185.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Bảo Thy</t>
+  </si>
+  <si>
+    <t>0900090939</t>
+  </si>
+  <si>
+    <t>389.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Nhật Kim Anh</t>
+  </si>
+  <si>
+    <t>0978733867</t>
+  </si>
+  <si>
+    <t>267.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tô Thy Hằng</t>
+  </si>
+  <si>
+    <t>0943941824</t>
+  </si>
+  <si>
+    <t>44.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Vĩnh Thuyên Kim</t>
+  </si>
+  <si>
+    <t>0990230159</t>
+  </si>
+  <si>
+    <t>Quốc Dũng</t>
+  </si>
+  <si>
+    <t>0929040512</t>
+  </si>
+  <si>
+    <t>176.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Thanh Huyền</t>
+  </si>
+  <si>
+    <t>0990179418</t>
+  </si>
+  <si>
+    <t>61.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Akira Phan</t>
+  </si>
+  <si>
+    <t>0988749727</t>
+  </si>
+  <si>
+    <t>145.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Minh Hằng</t>
+  </si>
+  <si>
+    <t>0907170246</t>
+  </si>
+  <si>
+    <t>338.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Thùy Chi</t>
+  </si>
+  <si>
+    <t>0959863870</t>
+  </si>
+  <si>
+    <t>133.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Bằng Cường</t>
+  </si>
+  <si>
+    <t>0915665884</t>
+  </si>
+  <si>
+    <t>136.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Duy Khoa</t>
+  </si>
+  <si>
+    <t>0916348412</t>
+  </si>
+  <si>
+    <t>152.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Hải Nguyên</t>
+  </si>
+  <si>
+    <t>0936157946</t>
+  </si>
+  <si>
+    <t>185.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Hoàng Hải</t>
+  </si>
+  <si>
+    <t>0925919340</t>
+  </si>
+  <si>
+    <t>222.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Khánh Phương</t>
+  </si>
+  <si>
+    <t>0985885861</t>
+  </si>
+  <si>
+    <t>148.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lê Hiếu</t>
+  </si>
+  <si>
+    <t>0972149319</t>
+  </si>
+  <si>
+    <t>186.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Tống Gia Vỹ</t>
+  </si>
+  <si>
+    <t>0957503055</t>
+  </si>
+  <si>
+    <t>84.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Vũ Duy Khánh</t>
+  </si>
+  <si>
+    <t>0995563711</t>
+  </si>
+  <si>
+    <t>196.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Chu Hiểu Minh</t>
+  </si>
+  <si>
+    <t>0951587232</t>
+  </si>
+  <si>
+    <t>39.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồ Ngọc Hà</t>
+  </si>
+  <si>
+    <t>0999396748</t>
+  </si>
+  <si>
+    <t>Khổng Tú Quỳnh</t>
+  </si>
+  <si>
+    <t>0980865941</t>
+  </si>
+  <si>
+    <t>118.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Kasim Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>0996612502</t>
+  </si>
+  <si>
+    <t>172.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Lâm Chấn Khang</t>
+  </si>
+  <si>
+    <t>0982227504</t>
+  </si>
+  <si>
+    <t>273.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Nam Cường</t>
+  </si>
+  <si>
+    <t>0946830916</t>
+  </si>
+  <si>
+    <t>99.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Ngân Khánh</t>
+  </si>
+  <si>
+    <t>0900394164</t>
+  </si>
+  <si>
+    <t>72.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Noo Phước Thịnh</t>
+  </si>
+  <si>
+    <t>0951619030</t>
+  </si>
+  <si>
+    <t>Sỹ Luân</t>
+  </si>
+  <si>
+    <t>0929852044</t>
+  </si>
+  <si>
+    <t>55.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tô Minh Thắng</t>
+  </si>
+  <si>
+    <t>0906687589</t>
+  </si>
+  <si>
+    <t>192.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Anh Khang</t>
+  </si>
+  <si>
+    <t>0920556722</t>
+  </si>
+  <si>
+    <t>112.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Châu Khải Phong</t>
+  </si>
+  <si>
+    <t>0939662732</t>
+  </si>
+  <si>
+    <t>95.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Châu Việt Cường</t>
+  </si>
+  <si>
+    <t>0925316788</t>
+  </si>
+  <si>
+    <t>198.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Chí Thiện</t>
+  </si>
+  <si>
+    <t>0966198086</t>
+  </si>
+  <si>
+    <t>15.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Đại Nhân</t>
+  </si>
+  <si>
+    <t>0949268246</t>
+  </si>
+  <si>
+    <t>111.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Đan Nguyên</t>
+  </si>
+  <si>
+    <t>0901989953</t>
+  </si>
+  <si>
+    <t>Hải Băng</t>
+  </si>
+  <si>
+    <t>0969599000</t>
+  </si>
+  <si>
+    <t>108.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Hkt Band</t>
+  </si>
+  <si>
+    <t>0973508484</t>
+  </si>
+  <si>
+    <t>49.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồ Quang Hiếu</t>
+  </si>
+  <si>
+    <t>0918150989</t>
+  </si>
+  <si>
+    <t>196.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Khắc Việt</t>
+  </si>
+  <si>
+    <t>0900437398</t>
+  </si>
+  <si>
+    <t>197.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Khánh Đơn</t>
+  </si>
+  <si>
+    <t>0933422540</t>
+  </si>
+  <si>
+    <t>70.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Khởi My</t>
+  </si>
+  <si>
+    <t>0916886466</t>
+  </si>
+  <si>
+    <t>128.800 VNĐ</t>
+  </si>
+  <si>
+    <t>The Men</t>
+  </si>
+  <si>
+    <t>0927961965</t>
+  </si>
+  <si>
+    <t>137.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Trịnh Thăng Bình</t>
+  </si>
+  <si>
+    <t>0967937422</t>
+  </si>
+  <si>
+    <t>321.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Vĩ Mj</t>
+  </si>
+  <si>
+    <t>0916154354</t>
+  </si>
+  <si>
+    <t>60.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Dương Ngọc Thái</t>
+  </si>
+  <si>
+    <t>0934720709</t>
+  </si>
+  <si>
+    <t>175.400 VNĐ</t>
+  </si>
+  <si>
+    <t>365 Band</t>
+  </si>
+  <si>
+    <t>0953142484</t>
+  </si>
+  <si>
+    <t>26.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Chi Dân</t>
+  </si>
+  <si>
+    <t>0989691381</t>
+  </si>
+  <si>
+    <t>178.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Du Thiên</t>
+  </si>
+  <si>
+    <t>0900566537</t>
+  </si>
+  <si>
+    <t>140.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Đức Tuấn</t>
+  </si>
+  <si>
+    <t>0912047771</t>
+  </si>
+  <si>
+    <t>84.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồ Việt Trung</t>
+  </si>
+  <si>
+    <t>0922869404</t>
+  </si>
+  <si>
+    <t>183.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Hương Tràm</t>
+  </si>
+  <si>
+    <t>0989948467</t>
+  </si>
+  <si>
+    <t>176.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Lưu Hương Giang</t>
+  </si>
+  <si>
+    <t>0966570927</t>
+  </si>
+  <si>
+    <t>151.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Thanh Bùi</t>
+  </si>
+  <si>
+    <t>0929423766</t>
+  </si>
+  <si>
+    <t>107.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Cao Trung</t>
+  </si>
+  <si>
+    <t>0953069698</t>
+  </si>
+  <si>
+    <t>163.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồ Quang 8</t>
+  </si>
+  <si>
+    <t>0999832421</t>
+  </si>
+  <si>
+    <t>179.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Hoài Lâm</t>
+  </si>
+  <si>
+    <t>0955233254</t>
+  </si>
+  <si>
+    <t>85.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Việt Hoàn</t>
+  </si>
+  <si>
+    <t>0956736931</t>
+  </si>
+  <si>
+    <t>68.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Tiêu Châu Như Quỳnh</t>
+  </si>
+  <si>
+    <t>0936142506</t>
+  </si>
+  <si>
+    <t>198.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Lý Diệu Linh</t>
+  </si>
+  <si>
+    <t>0962345119</t>
+  </si>
+  <si>
+    <t>Song Thư</t>
+  </si>
+  <si>
+    <t>0916111521</t>
+  </si>
+  <si>
+    <t>137.800 VNĐ</t>
+  </si>
+  <si>
+    <t>Sky Nguyễn</t>
+  </si>
+  <si>
+    <t>0989204894</t>
+  </si>
+  <si>
+    <t>Nguyên Hy</t>
+  </si>
+  <si>
+    <t>0992089577</t>
+  </si>
+  <si>
+    <t>178.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Soobin Hoàng Sơn</t>
+  </si>
+  <si>
+    <t>0938149002</t>
+  </si>
+  <si>
+    <t>111.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Lưu Minh Tuấn</t>
+  </si>
+  <si>
+    <t>0938092359</t>
+  </si>
+  <si>
+    <t>97.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Lil Shady</t>
+  </si>
+  <si>
+    <t>0950326874</t>
+  </si>
+  <si>
+    <t>183.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lam Anh</t>
+  </si>
+  <si>
+    <t>0911307899</t>
+  </si>
+  <si>
+    <t>187.400 VNĐ</t>
+  </si>
+  <si>
+    <t>Hồ Hoàng Yến</t>
+  </si>
+  <si>
+    <t>0981938032</t>
+  </si>
+  <si>
+    <t>151.600 VNĐ</t>
+  </si>
+  <si>
+    <t>Xuân Nghi</t>
+  </si>
+  <si>
+    <t>0958730176</t>
+  </si>
+  <si>
+    <t>62.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Phúc Bồ</t>
+  </si>
+  <si>
+    <t>0949238336</t>
+  </si>
+  <si>
+    <t>293.200 VNĐ</t>
+  </si>
+  <si>
+    <t>Mun Phạm</t>
+  </si>
+  <si>
+    <t>0925425623</t>
+  </si>
+  <si>
+    <t>51.600 VNĐ</t>
   </si>
 </sst>
 </file>
@@ -477,7 +1869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F1" sqref="F1"/>
@@ -485,12 +1877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.27301" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.760498" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="28.016968" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20.947266" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.234131" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.69928" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.69928" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.520996" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="16.234131" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -515,7 +1907,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -535,7 +1927,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -555,7 +1947,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -575,7 +1967,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -595,7 +1987,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -615,7 +2007,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -635,7 +2027,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -655,7 +2047,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -675,7 +2067,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -695,7 +2087,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -711,6 +2103,3146 @@
       </c>
       <c r="F11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>199</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>218</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>242</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>258</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>260</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>264</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>274</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>278</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>287</v>
+      </c>
+      <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>289</v>
+      </c>
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>304</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>316</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>332</v>
+      </c>
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>351</v>
+      </c>
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>395</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>404</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>405</v>
+      </c>
+      <c r="B97" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>443</v>
+      </c>
+      <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>444</v>
+      </c>
+      <c r="B99" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>456</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>473</v>
+      </c>
+      <c r="B101" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>477</v>
+      </c>
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>479</v>
+      </c>
+      <c r="B103" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>480</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>481</v>
+      </c>
+      <c r="B105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>485</v>
+      </c>
+      <c r="B106" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>488</v>
+      </c>
+      <c r="B107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>489</v>
+      </c>
+      <c r="B108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>490</v>
+      </c>
+      <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>492</v>
+      </c>
+      <c r="B110" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>493</v>
+      </c>
+      <c r="B111" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" t="s">
+        <v>333</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>497</v>
+      </c>
+      <c r="B112" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>498</v>
+      </c>
+      <c r="B113" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>500</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>501</v>
+      </c>
+      <c r="B115" t="s">
+        <v>344</v>
+      </c>
+      <c r="C115" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>506</v>
+      </c>
+      <c r="B116" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>508</v>
+      </c>
+      <c r="B117" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>510</v>
+      </c>
+      <c r="B118" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>513</v>
+      </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>517</v>
+      </c>
+      <c r="B120" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" t="s">
+        <v>359</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>518</v>
+      </c>
+      <c r="B121" t="s">
+        <v>361</v>
+      </c>
+      <c r="C121" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>519</v>
+      </c>
+      <c r="B122" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>525</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>526</v>
+      </c>
+      <c r="B124" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" t="s">
+        <v>371</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>527</v>
+      </c>
+      <c r="B125" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" t="s">
+        <v>374</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>533</v>
+      </c>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>535</v>
+      </c>
+      <c r="B127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>1239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>1242</v>
+      </c>
+      <c r="B129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>1243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>1244</v>
+      </c>
+      <c r="B131" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" t="s">
+        <v>391</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>1245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>1246</v>
+      </c>
+      <c r="B133" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" t="s">
+        <v>397</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>1248</v>
+      </c>
+      <c r="B134" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>1249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>1250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" t="s">
+        <v>405</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>1253</v>
+      </c>
+      <c r="B137" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>1255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>1257</v>
+      </c>
+      <c r="B139" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" t="s">
+        <v>414</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>1267</v>
+      </c>
+      <c r="B140" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>1269</v>
+      </c>
+      <c r="B141" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" t="s">
+        <v>420</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>1273</v>
+      </c>
+      <c r="B142" t="s">
+        <v>422</v>
+      </c>
+      <c r="C142" t="s">
+        <v>423</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>1280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>425</v>
+      </c>
+      <c r="C143" t="s">
+        <v>426</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>1285</v>
+      </c>
+      <c r="B144" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" t="s">
+        <v>429</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>1292</v>
+      </c>
+      <c r="B145" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" t="s">
+        <v>432</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>1295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>434</v>
+      </c>
+      <c r="C146" t="s">
+        <v>435</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>1296</v>
+      </c>
+      <c r="B147" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" t="s">
+        <v>438</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>1301</v>
+      </c>
+      <c r="B148" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" t="s">
+        <v>441</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>1307</v>
+      </c>
+      <c r="B149" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" t="s">
+        <v>444</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>1316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>1329</v>
+      </c>
+      <c r="B151" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" t="s">
+        <v>450</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>1342</v>
+      </c>
+      <c r="B152" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" t="s">
+        <v>453</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>1344</v>
+      </c>
+      <c r="B153" t="s">
+        <v>455</v>
+      </c>
+      <c r="C153" t="s">
+        <v>456</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>1345</v>
+      </c>
+      <c r="B154" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>1351</v>
+      </c>
+      <c r="B155" t="s">
+        <v>461</v>
+      </c>
+      <c r="C155" t="s">
+        <v>462</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>1355</v>
+      </c>
+      <c r="B156" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" t="s">
+        <v>465</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>1359</v>
+      </c>
+      <c r="B157" t="s">
+        <v>467</v>
+      </c>
+      <c r="C157" t="s">
+        <v>468</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>1366</v>
+      </c>
+      <c r="B158" t="s">
+        <v>469</v>
+      </c>
+      <c r="C158" t="s">
+        <v>470</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>1377</v>
+      </c>
+      <c r="B159" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" t="s">
+        <v>473</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>1402</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>1404</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>478</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>1413</v>
+      </c>
+      <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>1433</v>
+      </c>
+      <c r="B163" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>1435</v>
+      </c>
+      <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>1439</v>
+      </c>
+      <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>1454</v>
+      </c>
+      <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>1455</v>
+      </c>
+      <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>1468</v>
+      </c>
+      <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
